--- a/data/tidy_data/allocation/embodied_fish_allocation.xlsx
+++ b/data/tidy_data/allocation/embodied_fish_allocation.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gclawson/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B568B7E-0DF5-CD43-9A2D-F3AD4056BB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418A9C87-76E1-43D3-AFF3-D6E1E7390878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37380" yWindow="1780" windowWidth="33580" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +17,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
   <si>
     <t>species</t>
   </si>
@@ -62,6 +57,12 @@
     <t>mass_value</t>
   </si>
   <si>
+    <t>CommonName</t>
+  </si>
+  <si>
+    <t>sci_name</t>
+  </si>
+  <si>
     <t>Gross energy MJ kg-1 DM</t>
   </si>
   <si>
@@ -83,12 +84,24 @@
     <t>SO</t>
   </si>
   <si>
+    <t>Antarctic krill</t>
+  </si>
+  <si>
+    <t>Euphausia superba</t>
+  </si>
+  <si>
     <t>Atlantic herring (Clupea harengus) b</t>
   </si>
   <si>
     <t>IS</t>
   </si>
   <si>
+    <t>Atlantic herring</t>
+  </si>
+  <si>
+    <t>Clupea harengus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atlantic herring (C. harengus) b </t>
   </si>
   <si>
@@ -101,18 +114,42 @@
     <t>Atlantic mackerel (Scomber scombrus) b</t>
   </si>
   <si>
+    <t>Atlantic mackerel</t>
+  </si>
+  <si>
+    <t>Scomber scombrus</t>
+  </si>
+  <si>
     <t>Blue whiting (Micromesistius poutassou) b</t>
   </si>
   <si>
+    <t>Blue whiting</t>
+  </si>
+  <si>
+    <t>Micromesistius poutassou</t>
+  </si>
+  <si>
     <t>Boarfish (Capros aper) b</t>
   </si>
   <si>
+    <t>Boarfish</t>
+  </si>
+  <si>
+    <t>Capros aper</t>
+  </si>
+  <si>
     <t>Capelin (Mallotus villosus) b</t>
   </si>
   <si>
     <t>BS</t>
   </si>
   <si>
+    <t>Capelin</t>
+  </si>
+  <si>
+    <t>Mallotus villosus</t>
+  </si>
+  <si>
     <t>Capelin (M. villosus) b</t>
   </si>
   <si>
@@ -122,25 +159,67 @@
     <t>HC</t>
   </si>
   <si>
+    <t>Chilean jack</t>
+  </si>
+  <si>
+    <t>Trachurus murphyi</t>
+  </si>
+  <si>
     <t>European sprat (Sprattus sprattus) b</t>
   </si>
   <si>
+    <t>European sprat</t>
+  </si>
+  <si>
+    <t>Sprattus sprattus</t>
+  </si>
+  <si>
     <t>Gulf menhaden (Brevoorti patronus) b</t>
   </si>
   <si>
     <t>GM</t>
   </si>
   <si>
+    <t>Gulf menhaden</t>
+  </si>
+  <si>
+    <t>Brevoortia patronus</t>
+  </si>
+  <si>
     <t>Norway pout (Trisopterus esmarkii) b</t>
   </si>
   <si>
+    <t>Norway pout</t>
+  </si>
+  <si>
+    <t>Trisopterus esmarkii</t>
+  </si>
+  <si>
     <t>Peruvian bnchovy (Engraulis ringens) b</t>
   </si>
   <si>
+    <t>Peruvian anchovy</t>
+  </si>
+  <si>
+    <t>Engraulis ringens</t>
+  </si>
+  <si>
     <t>Sandeels (Ammodytes tobianus) b</t>
   </si>
   <si>
+    <t>Sandeels</t>
+  </si>
+  <si>
+    <t>Ammodytes tobianus</t>
+  </si>
+  <si>
     <t>South American pilchard (Sardinops sagax) b</t>
+  </si>
+  <si>
+    <t>South American pilchard</t>
+  </si>
+  <si>
+    <t>Sardinops sagax</t>
   </si>
   <si>
     <t>Global average c</t>
@@ -156,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +247,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -211,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,6 +314,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,20 +635,22 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="7"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +678,12 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -614,21 +709,21 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -636,8 +731,12 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -663,21 +762,21 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -685,8 +784,12 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -712,12 +815,12 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>0.16</v>
@@ -726,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2">
         <f>(C4*$G$2)/SUM((C4*$G$2),($G$3*D4))</f>
@@ -744,8 +847,12 @@
         <f>H4/C4</f>
         <v>6.25</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -771,12 +878,12 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6">
         <v>0.16</v>
@@ -785,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <f>(D5*$G$3)/SUM((D5*$G$3),(C5*$G$2))</f>
@@ -801,8 +908,12 @@
       <c r="I5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -828,12 +939,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>0.2</v>
@@ -842,7 +953,7 @@
         <v>0.12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
         <f>(C6*$G$2)/SUM((C6*$G$2),($G$3*D6))</f>
@@ -860,8 +971,12 @@
         <f>H6/C6</f>
         <v>3.125</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -887,12 +1002,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>0.2</v>
@@ -901,7 +1016,7 @@
         <v>0.12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <f>(D7*$G$3)/SUM((D7*$G$3),(C7*$G$2))</f>
@@ -919,8 +1034,12 @@
         <f>H7/D7</f>
         <v>3.125</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -946,12 +1065,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6">
         <v>0.2</v>
@@ -960,7 +1079,7 @@
         <v>0.12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <f>(C8*$G$2)/SUM((C8*$G$2),($G$3*D8))</f>
@@ -978,8 +1097,12 @@
         <f>H8/C8</f>
         <v>3.125</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1005,12 +1128,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6">
         <v>0.2</v>
@@ -1019,7 +1142,7 @@
         <v>0.12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <f>(D9*$G$3)/SUM((D9*$G$3),(C9*$G$2))</f>
@@ -1037,8 +1160,12 @@
         <f>H9/D9</f>
         <v>3.125</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1064,12 +1191,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6">
         <v>0.2</v>
@@ -1078,7 +1205,7 @@
         <v>0.12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <f>(C10*$G$2)/SUM((C10*$G$2),($G$3*D10))</f>
@@ -1096,8 +1223,12 @@
         <f>H10/C10</f>
         <v>3.125</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1123,12 +1254,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6">
         <v>0.2</v>
@@ -1137,7 +1268,7 @@
         <v>0.12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
         <f>(D11*$G$3)/SUM((D11*$G$3),(C11*$G$2))</f>
@@ -1155,8 +1286,12 @@
         <f>H11/D11</f>
         <v>3.125</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1182,12 +1317,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6">
         <v>0.19</v>
@@ -1196,7 +1331,7 @@
         <v>0.19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
         <f>(C12*$G$2)/SUM((C12*$G$2),($G$3*D12))</f>
@@ -1214,8 +1349,12 @@
         <f>H12/C12</f>
         <v>2.6315789473684212</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1241,12 +1380,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6">
         <v>0.19</v>
@@ -1255,7 +1394,7 @@
         <v>0.19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
         <f>(D13*$G$3)/SUM((D13*$G$3),(C13*$G$2))</f>
@@ -1273,8 +1412,12 @@
         <f>H13/D13</f>
         <v>2.6315789473684212</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1300,12 +1443,12 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6">
         <v>0.2</v>
@@ -1314,7 +1457,7 @@
         <v>0.02</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
         <f>(C14*$G$2)/SUM((C14*$G$2),($G$3*D14))</f>
@@ -1332,8 +1475,12 @@
         <f>H14/C14</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1359,12 +1506,12 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>0.2</v>
@@ -1373,7 +1520,7 @@
         <v>0.02</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2">
         <f>(D15*$G$3)/SUM((D15*$G$3),(C15*$G$2))</f>
@@ -1391,8 +1538,12 @@
         <f>H15/D15</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1418,12 +1569,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>0.22</v>
@@ -1432,7 +1583,7 @@
         <v>0.03</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
         <f>(C16*$G$2)/SUM((C16*$G$2),($G$3*D16))</f>
@@ -1450,8 +1601,12 @@
         <f>H16/C16</f>
         <v>4</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1477,12 +1632,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6">
         <v>0.22</v>
@@ -1491,7 +1646,7 @@
         <v>0.03</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2">
         <f>(D17*$G$3)/SUM((D17*$G$3),(C17*$G$2))</f>
@@ -1509,8 +1664,12 @@
         <f>H17/D17</f>
         <v>4</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1536,12 +1695,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
         <v>0.17</v>
@@ -1550,7 +1709,7 @@
         <v>0.08</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2">
         <f>(C18*$G$2)/SUM((C18*$G$2),($G$3*D18))</f>
@@ -1568,8 +1727,12 @@
         <f>H18/C18</f>
         <v>4</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1595,12 +1758,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6">
         <v>0.17</v>
@@ -1609,7 +1772,7 @@
         <v>0.08</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2">
         <f>(D19*$G$3)/SUM((D19*$G$3),(C19*$G$2))</f>
@@ -1627,8 +1790,12 @@
         <f>H19/D19</f>
         <v>4</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1654,12 +1821,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6">
         <v>0.17</v>
@@ -1668,7 +1835,7 @@
         <v>0.08</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
         <f>(C20*$G$2)/SUM((C20*$G$2),($G$3*D20))</f>
@@ -1686,8 +1853,12 @@
         <f>H20/C20</f>
         <v>4</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1713,12 +1884,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6">
         <v>0.17</v>
@@ -1727,7 +1898,7 @@
         <v>0.08</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2">
         <f>(D21*$G$3)/SUM((D21*$G$3),(C21*$G$2))</f>
@@ -1745,8 +1916,12 @@
         <f>H21/D21</f>
         <v>4</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1772,12 +1947,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15.75">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6">
         <v>0.19</v>
@@ -1786,7 +1961,7 @@
         <v>0.19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2">
         <f>(C22*$G$2)/SUM((C22*$G$2),($G$3*D22))</f>
@@ -1804,8 +1979,12 @@
         <f>H22/C22</f>
         <v>2.6315789473684212</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="J22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1831,12 +2010,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15.75">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6">
         <v>0.19</v>
@@ -1845,7 +2024,7 @@
         <v>0.19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2">
         <f>(D23*$G$3)/SUM((D23*$G$3),(C23*$G$2))</f>
@@ -1863,8 +2042,12 @@
         <f>H23/D23</f>
         <v>2.6315789473684212</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="J23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1890,12 +2073,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15.75">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6">
         <v>0.19</v>
@@ -1904,7 +2087,7 @@
         <v>0.08</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2">
         <f>(C24*$G$2)/SUM((C24*$G$2),($G$3*D24))</f>
@@ -1922,8 +2105,12 @@
         <f>H24/C24</f>
         <v>3.7037037037037037</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="J24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1949,12 +2136,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15.75">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C25" s="6">
         <v>0.19</v>
@@ -1963,7 +2150,7 @@
         <v>0.08</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2">
         <f>(D25*$G$3)/SUM((D25*$G$3),(C25*$G$2))</f>
@@ -1981,8 +2168,12 @@
         <f>H25/D25</f>
         <v>3.7037037037037033</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="J25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2008,12 +2199,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15.75">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6">
         <v>0.24</v>
@@ -2022,7 +2213,7 @@
         <v>0.13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
         <f>(C26*$G$2)/SUM((C26*$G$2),($G$3*D26))</f>
@@ -2040,8 +2231,12 @@
         <f>H26/C26</f>
         <v>2.7027027027027031</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2067,12 +2262,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15.75">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6">
         <v>0.24</v>
@@ -2081,7 +2276,7 @@
         <v>0.13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2">
         <f>(D27*$G$3)/SUM((D27*$G$3),(C27*$G$2))</f>
@@ -2099,8 +2294,12 @@
         <f>H27/D27</f>
         <v>2.7027027027027026</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2126,12 +2325,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15.75">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6">
         <v>0.2</v>
@@ -2140,7 +2339,7 @@
         <v>0.12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2">
         <f>(C28*$G$2)/SUM((C28*$G$2),($G$3*D28))</f>
@@ -2158,8 +2357,12 @@
         <f>H28/C28</f>
         <v>3.125</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2185,12 +2388,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15.75">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6">
         <v>0.2</v>
@@ -2199,7 +2402,7 @@
         <v>0.12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2">
         <f>(D29*$G$3)/SUM((D29*$G$3),(C29*$G$2))</f>
@@ -2217,8 +2420,12 @@
         <f>H29/D29</f>
         <v>3.125</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="J29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2244,12 +2451,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15.75">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6">
         <v>0.23</v>
@@ -2258,7 +2465,7 @@
         <v>0.05</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2">
         <f>(C30*$G$2)/SUM((C30*$G$2),($G$3*D30))</f>
@@ -2276,8 +2483,12 @@
         <f>H30/C30</f>
         <v>3.5714285714285712</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="J30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2303,12 +2514,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6">
         <v>0.23</v>
@@ -2317,7 +2528,7 @@
         <v>0.05</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2">
         <f>(D31*$G$3)/SUM((D31*$G$3),(C31*$G$2))</f>
@@ -2335,8 +2546,12 @@
         <f>H31/D31</f>
         <v>3.5714285714285712</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="J31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2362,12 +2577,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15.75">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C32" s="6">
         <v>0.2</v>
@@ -2376,7 +2591,7 @@
         <v>0.04</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2">
         <f>(C32*$G$2)/SUM((C32*$G$2),($G$3*D32))</f>
@@ -2394,8 +2609,12 @@
         <f>H32/C32</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="J32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2421,12 +2640,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15.75">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6">
         <v>0.2</v>
@@ -2435,7 +2654,7 @@
         <v>0.04</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2">
         <f>(D33*$G$3)/SUM((D33*$G$3),(C33*$G$2))</f>
@@ -2453,8 +2672,12 @@
         <f>H33/D33</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="J33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2480,12 +2703,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15.75">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6">
         <v>0.23</v>
@@ -2494,7 +2717,7 @@
         <v>0.18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
         <f>(C34*$G$2)/SUM((C34*$G$2),($G$3*D34))</f>
@@ -2512,8 +2735,12 @@
         <f>H34/C34</f>
         <v>2.4390243902439019</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="J34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2539,12 +2766,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15.75">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6">
         <v>0.23</v>
@@ -2553,7 +2780,7 @@
         <v>0.18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
         <f>(D35*$G$3)/SUM((D35*$G$3),(C35*$G$2))</f>
@@ -2571,8 +2798,12 @@
         <f>H35/D35</f>
         <v>2.4390243902439024</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="J35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2598,12 +2829,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C36" s="6">
         <v>0.23</v>
@@ -2612,7 +2843,7 @@
         <v>0.05</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2">
         <f>(C36*$G$2)/SUM((C36*$G$2),($G$3*D36))</f>
@@ -2630,8 +2861,12 @@
         <f>H36/C36</f>
         <v>3.5714285714285712</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="J36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2657,12 +2892,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C37" s="8">
         <v>0.22500000000000001</v>
@@ -2671,7 +2906,7 @@
         <v>0.05</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2">
         <f>(D37*$G$3)/SUM((D37*$G$3),(C37*$G$2))</f>
@@ -2689,8 +2924,12 @@
         <f>H37/D37</f>
         <v>3.6363636363636362</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
+      <c r="J37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="4"/>
@@ -2716,13 +2955,13 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="4"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35">
       <c r="B40" s="7"/>
       <c r="D40"/>
       <c r="G40" s="7"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35">
       <c r="A41" s="2"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2733,7 +2972,7 @@
       <c r="H41" s="11"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35">
       <c r="A42" s="2"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2744,7 +2983,7 @@
       <c r="H42" s="11"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35">
       <c r="A43" s="2"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2755,7 +2994,7 @@
       <c r="H43" s="11"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35">
       <c r="A44" s="2"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2766,7 +3005,7 @@
       <c r="H44" s="11"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35">
       <c r="A45" s="2"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2777,7 +3016,7 @@
       <c r="H45" s="11"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35">
       <c r="A46" s="2"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2788,7 +3027,7 @@
       <c r="H46" s="11"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35">
       <c r="A47" s="2"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2799,7 +3038,7 @@
       <c r="H47" s="11"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2810,7 +3049,7 @@
       <c r="H48" s="11"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2821,7 +3060,7 @@
       <c r="H49" s="11"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2832,7 +3071,7 @@
       <c r="H50" s="11"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2843,7 +3082,7 @@
       <c r="H51" s="11"/>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2854,7 +3093,7 @@
       <c r="H52" s="11"/>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="2"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2865,7 +3104,7 @@
       <c r="H53" s="11"/>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2876,7 +3115,7 @@
       <c r="H54" s="11"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="2"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2887,7 +3126,7 @@
       <c r="H55" s="11"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="2"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2898,7 +3137,7 @@
       <c r="H56" s="11"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="2"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2909,7 +3148,7 @@
       <c r="H57" s="11"/>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="2"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2920,7 +3159,7 @@
       <c r="H58" s="11"/>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="2"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2931,7 +3170,7 @@
       <c r="H59" s="11"/>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="2"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2942,7 +3181,7 @@
       <c r="H60" s="11"/>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2953,7 +3192,7 @@
       <c r="H61" s="11"/>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="2"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2964,7 +3203,7 @@
       <c r="H62" s="11"/>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="2"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2975,7 +3214,7 @@
       <c r="H63" s="11"/>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="2"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2986,7 +3225,7 @@
       <c r="H64" s="11"/>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="2"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2997,7 +3236,7 @@
       <c r="H65" s="11"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="2"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3008,7 +3247,7 @@
       <c r="H66" s="11"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="2"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3019,7 +3258,7 @@
       <c r="H67" s="11"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="2"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3030,7 +3269,7 @@
       <c r="H68" s="11"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="2"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3041,7 +3280,7 @@
       <c r="H69" s="11"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="2"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3052,7 +3291,7 @@
       <c r="H70" s="11"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="2"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3063,7 +3302,7 @@
       <c r="H71" s="11"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="2"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3074,7 +3313,7 @@
       <c r="H72" s="11"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3085,7 +3324,7 @@
       <c r="H73" s="11"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -3282,37 +3521,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EE6CB6-2C00-4A2E-B24B-E862454D1C75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EE6CB6-2C00-4A2E-B24B-E862454D1C75}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A82EE-7F2B-442E-9916-B65751AC8941}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A82EE-7F2B-442E-9916-B65751AC8941}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A168EB7-056C-45D6-8681-2B21F655F8D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dae89b64-c529-494f-868e-ad5d2094d0fa"/>
-    <ds:schemaRef ds:uri="ed16b9de-937e-42cc-89df-e5a7efc4dd3c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A168EB7-056C-45D6-8681-2B21F655F8D4}"/>
 </file>
--- a/data/tidy_data/allocation/embodied_fish_allocation.xlsx
+++ b/data/tidy_data/allocation/embodied_fish_allocation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418A9C87-76E1-43D3-AFF3-D6E1E7390878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA8E060F-8745-4B6F-A9F5-D94CEF616597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="105">
   <si>
     <t>species</t>
   </si>
@@ -45,6 +48,12 @@
     <t>ingredient</t>
   </si>
   <si>
+    <t>ge_fmfo</t>
+  </si>
+  <si>
+    <t>price_fmfo</t>
+  </si>
+  <si>
     <t>ge_part</t>
   </si>
   <si>
@@ -57,175 +66,286 @@
     <t>mass_value</t>
   </si>
   <si>
+    <t>econ_part</t>
+  </si>
+  <si>
+    <t>econ_value</t>
+  </si>
+  <si>
     <t>CommonName</t>
   </si>
   <si>
     <t>sci_name</t>
   </si>
   <si>
-    <t>Gross energy MJ kg-1 DM</t>
+    <t>yield_reference</t>
+  </si>
+  <si>
+    <t>energy_reference</t>
+  </si>
+  <si>
+    <t>price_reference</t>
+  </si>
+  <si>
+    <t>Antarctic krill (Euphausia superba)a</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Fishmeal</t>
+  </si>
+  <si>
+    <t>Antarctic krill</t>
+  </si>
+  <si>
+    <t>Euphausia superba</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11367-016-1092-y/tables/3</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21762</t>
+  </si>
+  <si>
+    <t>Fish oil</t>
+  </si>
+  <si>
+    <t>Atlantic herring (Clupea harengus) b</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Atlantic herring</t>
+  </si>
+  <si>
+    <t>Clupea harengus</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21763</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic herring (C. harengus) b </t>
+  </si>
+  <si>
+    <t>NWS</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21765</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21766</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21767</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21768</t>
+  </si>
+  <si>
+    <t>Atlantic mackerel (Scomber scombrus) b</t>
+  </si>
+  <si>
+    <t>Atlantic mackerel</t>
+  </si>
+  <si>
+    <t>Scomber scombrus</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21769</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21770</t>
+  </si>
+  <si>
+    <t>Blue whiting (Micromesistius poutassou) b</t>
+  </si>
+  <si>
+    <t>Blue whiting</t>
+  </si>
+  <si>
+    <t>Micromesistius poutassou</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21771</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21772</t>
+  </si>
+  <si>
+    <t>Boarfish (Capros aper) b</t>
+  </si>
+  <si>
+    <t>Boarfish</t>
+  </si>
+  <si>
+    <t>Capros aper</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21773</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21774</t>
+  </si>
+  <si>
+    <t>Capelin (Mallotus villosus) b</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Capelin</t>
+  </si>
+  <si>
+    <t>Mallotus villosus</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21775</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21776</t>
+  </si>
+  <si>
+    <t>Capelin (M. villosus) b</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21777</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21778</t>
+  </si>
+  <si>
+    <t>Chilean jack mackerel (Trachurus murphyi) b</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>Chilean jack</t>
+  </si>
+  <si>
+    <t>Trachurus murphyi</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21779</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21780</t>
+  </si>
+  <si>
+    <t>European sprat (Sprattus sprattus) b</t>
+  </si>
+  <si>
+    <t>European sprat</t>
+  </si>
+  <si>
+    <t>Sprattus sprattus</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21781</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21782</t>
+  </si>
+  <si>
+    <t>Gulf menhaden (Brevoorti patronus) b</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Gulf menhaden</t>
+  </si>
+  <si>
+    <t>Brevoortia patronus</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21783</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21784</t>
+  </si>
+  <si>
+    <t>Norway pout (Trisopterus esmarkii) b</t>
+  </si>
+  <si>
+    <t>Norway pout</t>
+  </si>
+  <si>
+    <t>Trisopterus esmarkii</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21785</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21786</t>
+  </si>
+  <si>
+    <t>Peruvian bnchovy (Engraulis ringens) b</t>
+  </si>
+  <si>
+    <t>Peruvian anchovy</t>
+  </si>
+  <si>
+    <t>Engraulis ringens</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21787</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21788</t>
+  </si>
+  <si>
+    <t>Sandeels (Ammodytes tobianus) b</t>
+  </si>
+  <si>
+    <t>Sandeels</t>
+  </si>
+  <si>
+    <t>Ammodytes tobianus</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21789</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21790</t>
+  </si>
+  <si>
+    <t>South American pilchard (Sardinops sagax) b</t>
+  </si>
+  <si>
+    <t>South American pilchard</t>
+  </si>
+  <si>
+    <t>Sardinops sagax</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21791</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21792</t>
+  </si>
+  <si>
+    <t>Global average c</t>
+  </si>
+  <si>
+    <t>GA</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Fishmeal</t>
-  </si>
-  <si>
-    <t>Fish oil</t>
-  </si>
-  <si>
-    <t>Antarctic krill (Euphausia superba)a</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>Antarctic krill</t>
-  </si>
-  <si>
-    <t>Euphausia superba</t>
-  </si>
-  <si>
-    <t>Atlantic herring (Clupea harengus) b</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Atlantic herring</t>
-  </si>
-  <si>
-    <t>Clupea harengus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic herring (C. harengus) b </t>
-  </si>
-  <si>
-    <t>NWS</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>Atlantic mackerel (Scomber scombrus) b</t>
-  </si>
-  <si>
-    <t>Atlantic mackerel</t>
-  </si>
-  <si>
-    <t>Scomber scombrus</t>
-  </si>
-  <si>
-    <t>Blue whiting (Micromesistius poutassou) b</t>
-  </si>
-  <si>
-    <t>Blue whiting</t>
-  </si>
-  <si>
-    <t>Micromesistius poutassou</t>
-  </si>
-  <si>
-    <t>Boarfish (Capros aper) b</t>
-  </si>
-  <si>
-    <t>Boarfish</t>
-  </si>
-  <si>
-    <t>Capros aper</t>
-  </si>
-  <si>
-    <t>Capelin (Mallotus villosus) b</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>Capelin</t>
-  </si>
-  <si>
-    <t>Mallotus villosus</t>
-  </si>
-  <si>
-    <t>Capelin (M. villosus) b</t>
-  </si>
-  <si>
-    <t>Chilean jack mackerel (Trachurus murphyi) b</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>Chilean jack</t>
-  </si>
-  <si>
-    <t>Trachurus murphyi</t>
-  </si>
-  <si>
-    <t>European sprat (Sprattus sprattus) b</t>
-  </si>
-  <si>
-    <t>European sprat</t>
-  </si>
-  <si>
-    <t>Sprattus sprattus</t>
-  </si>
-  <si>
-    <t>Gulf menhaden (Brevoorti patronus) b</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Gulf menhaden</t>
-  </si>
-  <si>
-    <t>Brevoortia patronus</t>
-  </si>
-  <si>
-    <t>Norway pout (Trisopterus esmarkii) b</t>
-  </si>
-  <si>
-    <t>Norway pout</t>
-  </si>
-  <si>
-    <t>Trisopterus esmarkii</t>
-  </si>
-  <si>
-    <t>Peruvian bnchovy (Engraulis ringens) b</t>
-  </si>
-  <si>
-    <t>Peruvian anchovy</t>
-  </si>
-  <si>
-    <t>Engraulis ringens</t>
-  </si>
-  <si>
-    <t>Sandeels (Ammodytes tobianus) b</t>
-  </si>
-  <si>
-    <t>Sandeels</t>
-  </si>
-  <si>
-    <t>Ammodytes tobianus</t>
-  </si>
-  <si>
-    <t>South American pilchard (Sardinops sagax) b</t>
-  </si>
-  <si>
-    <t>South American pilchard</t>
-  </si>
-  <si>
-    <t>Sardinops sagax</t>
-  </si>
-  <si>
-    <t>Global average c</t>
-  </si>
-  <si>
-    <t>GA</t>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21793</t>
+  </si>
+  <si>
+    <t>https://www.oecd-ilibrary.org/sites/19428846-en/1/3/8/index.html?itemId=/content/publication/19428846-en&amp;_csp_=78a77099f3b0c6eae1de8bfe93d3b09e&amp;itemIGO=oecd&amp;itemContentType=book#section-d1e21794</t>
   </si>
 </sst>
 </file>
@@ -235,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +374,14 @@
       <color rgb="FF1F2328"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,10 +421,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,12 +443,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI74"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="R3" sqref="R3:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,14 +771,19 @@
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.28515625" customWidth="1"/>
+    <col min="17" max="17" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,25 +805,39 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -708,42 +855,72 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>23.84</v>
+      </c>
       <c r="G2" s="2">
-        <v>21.9</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+        <v>1490</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(C2*$F$2)/SUM((C2*$F$2),($F$3*D2))</f>
+        <v>0.99182493291452589</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2/C2</f>
+        <v>6.1989058307157867</v>
+      </c>
+      <c r="J2" s="11">
+        <f>C2/SUM(C2,D2)</f>
+        <v>0.99502487562189057</v>
+      </c>
+      <c r="K2" s="6">
+        <f>J2/C2</f>
+        <v>6.2189054726368163</v>
+      </c>
+      <c r="L2" s="6">
+        <f>(C2*G2)/SUM((C2*G2),(D3*G3))</f>
+        <v>0.99353203974128157</v>
+      </c>
+      <c r="M2" s="6">
+        <f>L2/C2</f>
+        <v>6.2095752483830093</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -761,42 +938,72 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>39.299999999999997</v>
+      </c>
       <c r="G3" s="2">
-        <v>39</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+        <v>1940</v>
+      </c>
+      <c r="H3" s="2">
+        <f>(D3*$F$3)/SUM((D3*$F$3),(C3*$F$2))</f>
+        <v>8.1750670854741758E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/D3</f>
+        <v>10.218833856842719</v>
+      </c>
+      <c r="J3" s="11">
+        <f>D3/SUM(C3,D3)</f>
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="K3" s="6">
+        <f>J3/D3</f>
+        <v>6.2189054726368154</v>
+      </c>
+      <c r="L3" s="6">
+        <f>(D3*G3)/SUM((C2*G2),(D3*G3))</f>
+        <v>6.4679602587184104E-3</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3/D3</f>
+        <v>8.0849503233980133</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -814,52 +1021,72 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" ht="15.75">
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>(C4*$G$2)/SUM((C4*$G$2),($G$3*D4))</f>
-        <v>1</v>
+        <v>22.1</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/C4</f>
-        <v>6.25</v>
-      </c>
-      <c r="H4" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H4" s="2">
+        <f>(C4*$F$2)/SUM((C4*$F$2),($F$3*D4))</f>
+        <v>0.50274145929987357</v>
+      </c>
+      <c r="I4" s="2">
+        <f>H4/C4</f>
+        <v>2.5137072964993679</v>
+      </c>
+      <c r="J4" s="11">
         <f>C4/SUM(C4,D4)</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <f>H4/C4</f>
-        <v>6.25</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="K4" s="6">
+        <f>J4/C4</f>
+        <v>3.125</v>
+      </c>
+      <c r="L4" s="6">
+        <f>(C4*G4)/SUM((C4*G4),(D5*G5))</f>
+        <v>0.56141672946495857</v>
+      </c>
+      <c r="M4" s="6">
+        <f>L4/C4</f>
+        <v>2.8070836473247929</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -877,50 +1104,72 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" ht="15.75">
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5*$G$3)/SUM((D5*$G$3),(C5*$G$2))</f>
-        <v>0</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(D5*$F$3)/SUM((D5*$F$3),(C5*$F$2))</f>
+        <v>0.49725854070012654</v>
+      </c>
+      <c r="I5" s="2">
+        <f>H5/D5</f>
+        <v>4.1438211725010543</v>
+      </c>
+      <c r="J5" s="11">
         <f>D5/SUM(C5,D5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="K5" s="6">
+        <f>J5/D5</f>
+        <v>3.125</v>
+      </c>
+      <c r="L5" s="6">
+        <f>(D5*G5)/SUM((C4*G4),(D5*G5))</f>
+        <v>0.43858327053504143</v>
+      </c>
+      <c r="M5" s="6">
+        <f>L5/D5</f>
+        <v>3.6548605877920122</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -938,13 +1187,17 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-    </row>
-    <row r="6" spans="1:35" ht="15.75">
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+    </row>
+    <row r="6" spans="1:39" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6">
         <v>0.2</v>
@@ -953,37 +1206,53 @@
         <v>0.12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f>(C6*$G$2)/SUM((C6*$G$2),($G$3*D6))</f>
-        <v>0.48344370860927161</v>
+        <v>22.1</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/C6</f>
-        <v>2.4172185430463577</v>
-      </c>
-      <c r="H6" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(C6*$F$2)/SUM((C6*$F$2),($F$3*D6))</f>
+        <v>0.50274145929987357</v>
+      </c>
+      <c r="I6" s="2">
+        <f>H6/C6</f>
+        <v>2.5137072964993679</v>
+      </c>
+      <c r="J6" s="11">
         <f>C6/SUM(C6,D6)</f>
         <v>0.625</v>
       </c>
-      <c r="I6" s="6">
-        <f>H6/C6</f>
+      <c r="K6" s="6">
+        <f>J6/C6</f>
         <v>3.125</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="L6" s="6">
+        <f>(C6*G6)/SUM((C6*G6),(D7*G7))</f>
+        <v>0.56141672946495857</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6/C6</f>
+        <v>2.8070836473247929</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1001,13 +1270,17 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-    </row>
-    <row r="7" spans="1:35" ht="15.75">
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
         <v>0.2</v>
@@ -1016,37 +1289,53 @@
         <v>0.12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7*$G$3)/SUM((D7*$G$3),(C7*$G$2))</f>
-        <v>0.51655629139072856</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/D7</f>
-        <v>4.3046357615894051</v>
-      </c>
-      <c r="H7" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(D7*$F$3)/SUM((D7*$F$3),(C7*$F$2))</f>
+        <v>0.49725854070012654</v>
+      </c>
+      <c r="I7" s="2">
+        <f>H7/D7</f>
+        <v>4.1438211725010543</v>
+      </c>
+      <c r="J7" s="11">
         <f>D7/SUM(C7,D7)</f>
         <v>0.375</v>
       </c>
-      <c r="I7" s="6">
-        <f>H7/D7</f>
+      <c r="K7" s="6">
+        <f>J7/D7</f>
         <v>3.125</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="L7" s="6">
+        <f>(D7*G7)/SUM((C6*G6),(D7*G7))</f>
+        <v>0.43858327053504143</v>
+      </c>
+      <c r="M7" s="6">
+        <f>L7/D7</f>
+        <v>3.6548605877920122</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1064,13 +1353,17 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" ht="15.75">
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6">
         <v>0.2</v>
@@ -1079,37 +1372,53 @@
         <v>0.12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f>(C8*$G$2)/SUM((C8*$G$2),($G$3*D8))</f>
-        <v>0.48344370860927161</v>
+        <v>22.1</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/C8</f>
-        <v>2.4172185430463577</v>
-      </c>
-      <c r="H8" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H8" s="2">
+        <f>(C8*$F$2)/SUM((C8*$F$2),($F$3*D8))</f>
+        <v>0.50274145929987357</v>
+      </c>
+      <c r="I8" s="2">
+        <f>H8/C8</f>
+        <v>2.5137072964993679</v>
+      </c>
+      <c r="J8" s="11">
         <f>C8/SUM(C8,D8)</f>
         <v>0.625</v>
       </c>
-      <c r="I8" s="6">
-        <f>H8/C8</f>
+      <c r="K8" s="6">
+        <f>J8/C8</f>
         <v>3.125</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="L8" s="6">
+        <f>(C8*G8)/SUM((C8*G8),(D9*G9))</f>
+        <v>0.56141672946495857</v>
+      </c>
+      <c r="M8" s="6">
+        <f>L8/C8</f>
+        <v>2.8070836473247929</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1127,13 +1436,17 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-    </row>
-    <row r="9" spans="1:35" ht="15.75">
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6">
         <v>0.2</v>
@@ -1142,37 +1455,53 @@
         <v>0.12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9*$G$3)/SUM((D9*$G$3),(C9*$G$2))</f>
-        <v>0.51655629139072856</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/D9</f>
-        <v>4.3046357615894051</v>
-      </c>
-      <c r="H9" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H9" s="2">
+        <f>(D9*$F$3)/SUM((D9*$F$3),(C9*$F$2))</f>
+        <v>0.49725854070012654</v>
+      </c>
+      <c r="I9" s="2">
+        <f>H9/D9</f>
+        <v>4.1438211725010543</v>
+      </c>
+      <c r="J9" s="11">
         <f>D9/SUM(C9,D9)</f>
         <v>0.375</v>
       </c>
-      <c r="I9" s="6">
-        <f>H9/D9</f>
+      <c r="K9" s="6">
+        <f>J9/D9</f>
         <v>3.125</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="L9" s="6">
+        <f>(D9*G9)/SUM((C8*G8),(D9*G9))</f>
+        <v>0.43858327053504143</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L9/D9</f>
+        <v>3.6548605877920122</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1190,52 +1519,72 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-    </row>
-    <row r="10" spans="1:35" ht="15.75">
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D10" s="6">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
-        <f>(C10*$G$2)/SUM((C10*$G$2),($G$3*D10))</f>
-        <v>0.48344370860927161</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/C10</f>
-        <v>2.4172185430463577</v>
-      </c>
-      <c r="H10" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H10" s="2">
+        <f>(C10*$F$2)/SUM((C10*$F$2),($F$3*D10))</f>
+        <v>0.3775736458663288</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10/C10</f>
+        <v>1.987229715085941</v>
+      </c>
+      <c r="J10" s="11">
         <f>C10/SUM(C10,D10)</f>
-        <v>0.625</v>
-      </c>
-      <c r="I10" s="6">
-        <f>H10/C10</f>
-        <v>3.125</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="6">
+        <f>J10/C10</f>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="L10" s="6">
+        <f>(C10*G10)/SUM((C10*G10),(D11*G11))</f>
+        <v>0.43440233236151604</v>
+      </c>
+      <c r="M10" s="6">
+        <f>L10/C10</f>
+        <v>2.2863280650606108</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1253,52 +1602,72 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" ht="15.75">
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+    </row>
+    <row r="11" spans="1:39" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D11" s="6">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11*$G$3)/SUM((D11*$G$3),(C11*$G$2))</f>
-        <v>0.51655629139072856</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/D11</f>
-        <v>4.3046357615894051</v>
-      </c>
-      <c r="H11" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H11" s="2">
+        <f>(D11*$F$3)/SUM((D11*$F$3),(C11*$F$2))</f>
+        <v>0.62242635413367109</v>
+      </c>
+      <c r="I11" s="2">
+        <f>H11/D11</f>
+        <v>3.2759281796509003</v>
+      </c>
+      <c r="J11" s="11">
         <f>D11/SUM(C11,D11)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I11" s="6">
-        <f>H11/D11</f>
-        <v>3.125</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <f>J11/D11</f>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="L11" s="6">
+        <f>(D11*G11)/SUM((C10*G10),(D11*G11))</f>
+        <v>0.56559766763848396</v>
+      </c>
+      <c r="M11" s="6">
+        <f>L11/D11</f>
+        <v>2.9768298296762312</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1316,52 +1685,72 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" ht="15.75">
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="6">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f>(C12*$G$2)/SUM((C12*$G$2),($G$3*D12))</f>
-        <v>0.35960591133004921</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/C12</f>
-        <v>1.8926626912107853</v>
-      </c>
-      <c r="H12" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H12" s="2">
+        <f>(C12*$F$2)/SUM((C12*$F$2),($F$3*D12))</f>
+        <v>0.85848037450486137</v>
+      </c>
+      <c r="I12" s="2">
+        <f>H12/C12</f>
+        <v>4.2924018725243069</v>
+      </c>
+      <c r="J12" s="11">
         <f>C12/SUM(C12,D12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="6">
-        <f>H12/C12</f>
-        <v>2.6315789473684212</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="K12" s="6">
+        <f>J12/C12</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="L12" s="6">
+        <f>(C12*G12)/SUM((C12*G12),(D13*G13))</f>
+        <v>0.88479809976247026</v>
+      </c>
+      <c r="M12" s="6">
+        <f>L12/C12</f>
+        <v>4.4239904988123513</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1379,52 +1768,72 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-    </row>
-    <row r="13" spans="1:35" ht="15.75">
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+    </row>
+    <row r="13" spans="1:39" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="6">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13*$G$3)/SUM((D13*$G$3),(C13*$G$2))</f>
-        <v>0.64039408866995073</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/D13</f>
-        <v>3.3704952035260565</v>
-      </c>
-      <c r="H13" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H13" s="2">
+        <f>(D13*$F$3)/SUM((D13*$F$3),(C13*$F$2))</f>
+        <v>0.14151962549513863</v>
+      </c>
+      <c r="I13" s="2">
+        <f>H13/D13</f>
+        <v>7.0759812747569315</v>
+      </c>
+      <c r="J13" s="11">
         <f>D13/SUM(C13,D13)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="6">
-        <f>H13/D13</f>
-        <v>2.6315789473684212</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f>J13/D13</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(D13*G13)/SUM((C12*G12),(D13*G13))</f>
+        <v>0.1152019002375297</v>
+      </c>
+      <c r="M13" s="6">
+        <f>L13/D13</f>
+        <v>5.7600950118764853</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1442,52 +1851,72 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-    </row>
-    <row r="14" spans="1:35" ht="15.75">
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+    </row>
+    <row r="14" spans="1:39" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D14" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
-        <f>(C14*$G$2)/SUM((C14*$G$2),($G$3*D14))</f>
-        <v>0.84883720930232553</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/C14</f>
-        <v>4.2441860465116275</v>
-      </c>
-      <c r="H14" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(C14*$F$2)/SUM((C14*$F$2),($F$3*D14))</f>
+        <v>0.81646377533547121</v>
+      </c>
+      <c r="I14" s="2">
+        <f>H14/C14</f>
+        <v>3.7111989787975963</v>
+      </c>
+      <c r="J14" s="11">
         <f>C14/SUM(C14,D14)</f>
-        <v>0.90909090909090917</v>
-      </c>
-      <c r="I14" s="6">
-        <f>H14/C14</f>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+        <v>0.88</v>
+      </c>
+      <c r="K14" s="6">
+        <f>J14/C14</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(C14*G14)/SUM((C14*G14),(D15*G15))</f>
+        <v>0.84922279792746114</v>
+      </c>
+      <c r="M14" s="6">
+        <f>L14/C14</f>
+        <v>3.8601036269430051</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1505,52 +1934,72 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-    </row>
-    <row r="15" spans="1:35" ht="15.75">
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D15" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15*$G$3)/SUM((D15*$G$3),(C15*$G$2))</f>
-        <v>0.15116279069767441</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/D15</f>
-        <v>7.5581395348837201</v>
-      </c>
-      <c r="H15" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H15" s="2">
+        <f>(D15*$F$3)/SUM((D15*$F$3),(C15*$F$2))</f>
+        <v>0.18353622466452876</v>
+      </c>
+      <c r="I15" s="2">
+        <f>H15/D15</f>
+        <v>6.1178741554842926</v>
+      </c>
+      <c r="J15" s="11">
         <f>D15/SUM(C15,D15)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="I15" s="6">
-        <f>H15/D15</f>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="K15" s="6">
+        <f>J15/D15</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(D15*G15)/SUM((C14*G14),(D15*G15))</f>
+        <v>0.15077720207253886</v>
+      </c>
+      <c r="M15" s="6">
+        <f>L15/D15</f>
+        <v>5.0259067357512954</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1568,52 +2017,72 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-    </row>
-    <row r="16" spans="1:35" ht="15.75">
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+    </row>
+    <row r="16" spans="1:39" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="D16" s="6">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f>(C16*$G$2)/SUM((C16*$G$2),($G$3*D16))</f>
-        <v>0.80460921843687372</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/C16</f>
-        <v>3.6573146292585168</v>
-      </c>
-      <c r="H16" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H16" s="2">
+        <f>(C16*$F$2)/SUM((C16*$F$2),($F$3*D16))</f>
+        <v>0.56313917296576266</v>
+      </c>
+      <c r="I16" s="2">
+        <f>H16/C16</f>
+        <v>3.312583370386839</v>
+      </c>
+      <c r="J16" s="11">
         <f>C16/SUM(C16,D16)</f>
-        <v>0.88</v>
-      </c>
-      <c r="I16" s="6">
-        <f>H16/C16</f>
+        <v>0.68</v>
+      </c>
+      <c r="K16" s="6">
+        <f>J16/C16</f>
         <v>4</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="L16" s="6">
+        <f>(C16*G16)/SUM((C16*G16),(D17*G17))</f>
+        <v>0.62007343941248472</v>
+      </c>
+      <c r="M16" s="6">
+        <f>L16/C16</f>
+        <v>3.6474908200734393</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1631,52 +2100,72 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-    </row>
-    <row r="17" spans="1:35" ht="15.75">
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+    </row>
+    <row r="17" spans="1:39" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="D17" s="6">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17*$G$3)/SUM((D17*$G$3),(C17*$G$2))</f>
-        <v>0.19539078156312625</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/D17</f>
-        <v>6.5130260521042089</v>
-      </c>
-      <c r="H17" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H17" s="2">
+        <f>(D17*$F$3)/SUM((D17*$F$3),(C17*$F$2))</f>
+        <v>0.4368608270342374</v>
+      </c>
+      <c r="I17" s="2">
+        <f>H17/D17</f>
+        <v>5.460760337927967</v>
+      </c>
+      <c r="J17" s="11">
         <f>D17/SUM(C17,D17)</f>
-        <v>0.12</v>
-      </c>
-      <c r="I17" s="6">
-        <f>H17/D17</f>
+        <v>0.32</v>
+      </c>
+      <c r="K17" s="6">
+        <f>J17/D17</f>
         <v>4</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="L17" s="6">
+        <f>(D17*G17)/SUM((C16*G16),(D17*G17))</f>
+        <v>0.37992656058751534</v>
+      </c>
+      <c r="M17" s="6">
+        <f>L17/D17</f>
+        <v>4.7490820073439419</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1694,13 +2183,17 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-    </row>
-    <row r="18" spans="1:35" ht="15.75">
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+    </row>
+    <row r="18" spans="1:39" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
         <v>0.17</v>
@@ -1709,37 +2202,53 @@
         <v>0.08</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f>(C18*$G$2)/SUM((C18*$G$2),($G$3*D18))</f>
-        <v>0.54405962297238053</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/C18</f>
-        <v>3.2003507233669439</v>
-      </c>
-      <c r="H18" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H18" s="2">
+        <f>(C18*$F$2)/SUM((C18*$F$2),($F$3*D18))</f>
+        <v>0.56313917296576266</v>
+      </c>
+      <c r="I18" s="2">
+        <f>H18/C18</f>
+        <v>3.312583370386839</v>
+      </c>
+      <c r="J18" s="11">
         <f>C18/SUM(C18,D18)</f>
         <v>0.68</v>
       </c>
-      <c r="I18" s="6">
-        <f>H18/C18</f>
+      <c r="K18" s="6">
+        <f>J18/C18</f>
         <v>4</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="L18" s="6">
+        <f>(C18*G18)/SUM((C18*G18),(D19*G19))</f>
+        <v>0.62007343941248472</v>
+      </c>
+      <c r="M18" s="6">
+        <f>L18/C18</f>
+        <v>3.6474908200734393</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1757,13 +2266,17 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-    </row>
-    <row r="19" spans="1:35" ht="15.75">
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+    </row>
+    <row r="19" spans="1:39" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6">
         <v>0.17</v>
@@ -1772,37 +2285,53 @@
         <v>0.08</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19*$G$3)/SUM((D19*$G$3),(C19*$G$2))</f>
-        <v>0.45594037702761947</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/D19</f>
-        <v>5.6992547128452431</v>
-      </c>
-      <c r="H19" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H19" s="2">
+        <f>(D19*$F$3)/SUM((D19*$F$3),(C19*$F$2))</f>
+        <v>0.4368608270342374</v>
+      </c>
+      <c r="I19" s="2">
+        <f>H19/D19</f>
+        <v>5.460760337927967</v>
+      </c>
+      <c r="J19" s="11">
         <f>D19/SUM(C19,D19)</f>
         <v>0.32</v>
       </c>
-      <c r="I19" s="6">
-        <f>H19/D19</f>
+      <c r="K19" s="6">
+        <f>J19/D19</f>
         <v>4</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="L19" s="6">
+        <f>(D19*G19)/SUM((C18*G18),(D19*G19))</f>
+        <v>0.37992656058751534</v>
+      </c>
+      <c r="M19" s="6">
+        <f>L19/D19</f>
+        <v>4.7490820073439419</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1820,52 +2349,72 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-    </row>
-    <row r="20" spans="1:35" ht="15.75">
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+    </row>
+    <row r="20" spans="1:39" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C20" s="6">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D20" s="6">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f>(C20*$G$2)/SUM((C20*$G$2),($G$3*D20))</f>
-        <v>0.54405962297238053</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/C20</f>
-        <v>3.2003507233669439</v>
-      </c>
-      <c r="H20" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H20" s="2">
+        <f>(C20*$F$2)/SUM((C20*$F$2),($F$3*D20))</f>
+        <v>0.3775736458663288</v>
+      </c>
+      <c r="I20" s="2">
+        <f>H20/C20</f>
+        <v>1.987229715085941</v>
+      </c>
+      <c r="J20" s="11">
         <f>C20/SUM(C20,D20)</f>
-        <v>0.68</v>
-      </c>
-      <c r="I20" s="6">
-        <f>H20/C20</f>
-        <v>4</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="6">
+        <f>J20/C20</f>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="L20" s="6">
+        <f>(C20*G20)/SUM((C20*G20),(D21*G21))</f>
+        <v>0.43440233236151604</v>
+      </c>
+      <c r="M20" s="6">
+        <f>L20/C20</f>
+        <v>2.2863280650606108</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1883,52 +2432,72 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-    </row>
-    <row r="21" spans="1:35" ht="15.75">
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+    </row>
+    <row r="21" spans="1:39" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D21" s="6">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21*$G$3)/SUM((D21*$G$3),(C21*$G$2))</f>
-        <v>0.45594037702761947</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/D21</f>
-        <v>5.6992547128452431</v>
-      </c>
-      <c r="H21" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H21" s="2">
+        <f>(D21*$F$3)/SUM((D21*$F$3),(C21*$F$2))</f>
+        <v>0.62242635413367109</v>
+      </c>
+      <c r="I21" s="2">
+        <f>H21/D21</f>
+        <v>3.2759281796509003</v>
+      </c>
+      <c r="J21" s="11">
         <f>D21/SUM(C21,D21)</f>
-        <v>0.32</v>
-      </c>
-      <c r="I21" s="6">
-        <f>H21/D21</f>
-        <v>4</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="6">
+        <f>J21/D21</f>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="L21" s="6">
+        <f>(D21*G21)/SUM((C20*G20),(D21*G21))</f>
+        <v>0.56559766763848396</v>
+      </c>
+      <c r="M21" s="6">
+        <f>L21/D21</f>
+        <v>2.9768298296762312</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1946,52 +2515,72 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-    </row>
-    <row r="22" spans="1:35" ht="15.75">
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+    </row>
+    <row r="22" spans="1:39" ht="15.75">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6">
         <v>0.19</v>
       </c>
       <c r="D22" s="6">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f>(C22*$G$2)/SUM((C22*$G$2),($G$3*D22))</f>
-        <v>0.35960591133004921</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/C22</f>
-        <v>1.8926626912107853</v>
-      </c>
-      <c r="H22" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H22" s="2">
+        <f>(C22*$F$2)/SUM((C22*$F$2),($F$3*D22))</f>
+        <v>0.59028356964136786</v>
+      </c>
+      <c r="I22" s="2">
+        <f>H22/C22</f>
+        <v>3.1067556296914098</v>
+      </c>
+      <c r="J22" s="11">
         <f>C22/SUM(C22,D22)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="6">
-        <f>H22/C22</f>
-        <v>2.6315789473684212</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="K22" s="6">
+        <f>J22/C22</f>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="L22" s="6">
+        <f>(C22*G22)/SUM((C22*G22),(D23*G23))</f>
+        <v>0.64590463153091482</v>
+      </c>
+      <c r="M22" s="6">
+        <f>L22/C22</f>
+        <v>3.3994980606890253</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2009,52 +2598,72 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-    </row>
-    <row r="23" spans="1:35" ht="15.75">
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+    </row>
+    <row r="23" spans="1:39" ht="15.75">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6">
         <v>0.19</v>
       </c>
       <c r="D23" s="6">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23*$G$3)/SUM((D23*$G$3),(C23*$G$2))</f>
-        <v>0.64039408866995073</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/D23</f>
-        <v>3.3704952035260565</v>
-      </c>
-      <c r="H23" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H23" s="2">
+        <f>(D23*$F$3)/SUM((D23*$F$3),(C23*$F$2))</f>
+        <v>0.40971643035863214</v>
+      </c>
+      <c r="I23" s="2">
+        <f>H23/D23</f>
+        <v>5.1214553794829021</v>
+      </c>
+      <c r="J23" s="11">
         <f>D23/SUM(C23,D23)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="6">
-        <f>H23/D23</f>
-        <v>2.6315789473684212</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="K23" s="6">
+        <f>J23/D23</f>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="L23" s="6">
+        <f>(D23*G23)/SUM((C22*G22),(D23*G23))</f>
+        <v>0.35409536846908507</v>
+      </c>
+      <c r="M23" s="6">
+        <f>L23/D23</f>
+        <v>4.4261921058635636</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2072,52 +2681,72 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-    </row>
-    <row r="24" spans="1:35" ht="15.75">
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+    </row>
+    <row r="24" spans="1:39" ht="15.75">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C24" s="6">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="D24" s="6">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f>(C24*$G$2)/SUM((C24*$G$2),($G$3*D24))</f>
-        <v>0.57148743304491134</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/C24</f>
-        <v>3.0078285949732178</v>
-      </c>
-      <c r="H24" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H24" s="2">
+        <f>(C24*$F$2)/SUM((C24*$F$2),($F$3*D24))</f>
+        <v>0.5282809816630657</v>
+      </c>
+      <c r="I24" s="2">
+        <f>H24/C24</f>
+        <v>2.2011707569294403</v>
+      </c>
+      <c r="J24" s="11">
         <f>C24/SUM(C24,D24)</f>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="I24" s="6">
-        <f>H24/C24</f>
-        <v>3.7037037037037037</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="K24" s="6">
+        <f>J24/C24</f>
+        <v>2.7027027027027031</v>
+      </c>
+      <c r="L24" s="6">
+        <f>(C24*G24)/SUM((C24*G24),(D25*G25))</f>
+        <v>0.58642177763201053</v>
+      </c>
+      <c r="M24" s="6">
+        <f>L24/C24</f>
+        <v>2.4434240734667108</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2135,52 +2764,72 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-    </row>
-    <row r="25" spans="1:35" ht="15.75">
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+    </row>
+    <row r="25" spans="1:39" ht="15.75">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="D25" s="6">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25*$G$3)/SUM((D25*$G$3),(C25*$G$2))</f>
-        <v>0.4285125669550886</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/D25</f>
-        <v>5.3564070869386073</v>
-      </c>
-      <c r="H25" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H25" s="2">
+        <f>(D25*$F$3)/SUM((D25*$F$3),(C25*$F$2))</f>
+        <v>0.47171901833693425</v>
+      </c>
+      <c r="I25" s="2">
+        <f>H25/D25</f>
+        <v>3.6286078333610328</v>
+      </c>
+      <c r="J25" s="11">
         <f>D25/SUM(C25,D25)</f>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="I25" s="6">
-        <f>H25/D25</f>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="K25" s="6">
+        <f>J25/D25</f>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="L25" s="6">
+        <f>(D25*G25)/SUM((C24*G24),(D25*G25))</f>
+        <v>0.41357822236798958</v>
+      </c>
+      <c r="M25" s="6">
+        <f>L25/D25</f>
+        <v>3.1813709412922275</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2198,52 +2847,72 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-    </row>
-    <row r="26" spans="1:35" ht="15.75">
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+    </row>
+    <row r="26" spans="1:39" ht="15.75">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="6">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
-        <f>(C26*$G$2)/SUM((C26*$G$2),($G$3*D26))</f>
-        <v>0.5090063916327715</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/C26</f>
-        <v>2.1208599651365478</v>
-      </c>
-      <c r="H26" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H26" s="2">
+        <f>(C26*$F$2)/SUM((C26*$F$2),($F$3*D26))</f>
+        <v>0.50274145929987357</v>
+      </c>
+      <c r="I26" s="2">
+        <f>H26/C26</f>
+        <v>2.5137072964993679</v>
+      </c>
+      <c r="J26" s="11">
         <f>C26/SUM(C26,D26)</f>
-        <v>0.64864864864864868</v>
-      </c>
-      <c r="I26" s="6">
-        <f>H26/C26</f>
-        <v>2.7027027027027031</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="K26" s="6">
+        <f>J26/C26</f>
+        <v>3.125</v>
+      </c>
+      <c r="L26" s="6">
+        <f>(C26*G26)/SUM((C26*G26),(D27*G27))</f>
+        <v>0.56141672946495857</v>
+      </c>
+      <c r="M26" s="6">
+        <f>L26/C26</f>
+        <v>2.8070836473247929</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2261,52 +2930,72 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-    </row>
-    <row r="27" spans="1:35" ht="15.75">
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+    </row>
+    <row r="27" spans="1:39" ht="15.75">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="D27" s="6">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2">
-        <f>(D27*$G$3)/SUM((D27*$G$3),(C27*$G$2))</f>
-        <v>0.49099360836722838</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/D27</f>
-        <v>3.7768739105171414</v>
-      </c>
-      <c r="H27" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H27" s="2">
+        <f>(D27*$F$3)/SUM((D27*$F$3),(C27*$F$2))</f>
+        <v>0.49725854070012654</v>
+      </c>
+      <c r="I27" s="2">
+        <f>H27/D27</f>
+        <v>4.1438211725010543</v>
+      </c>
+      <c r="J27" s="11">
         <f>D27/SUM(C27,D27)</f>
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="I27" s="6">
-        <f>H27/D27</f>
-        <v>2.7027027027027026</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="K27" s="6">
+        <f>J27/D27</f>
+        <v>3.125</v>
+      </c>
+      <c r="L27" s="6">
+        <f>(D27*G27)/SUM((C26*G26),(D27*G27))</f>
+        <v>0.43858327053504143</v>
+      </c>
+      <c r="M27" s="6">
+        <f>L27/D27</f>
+        <v>3.6548605877920122</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2324,52 +3013,72 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-    </row>
-    <row r="28" spans="1:35" ht="15.75">
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+    </row>
+    <row r="28" spans="1:39" ht="15.75">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C28" s="6">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D28" s="6">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f>(C28*$G$2)/SUM((C28*$G$2),($G$3*D28))</f>
-        <v>0.48344370860927161</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/C28</f>
-        <v>2.4172185430463577</v>
-      </c>
-      <c r="H28" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H28" s="2">
+        <f>(C28*$F$2)/SUM((C28*$F$2),($F$3*D28))</f>
+        <v>0.73617786847829003</v>
+      </c>
+      <c r="I28" s="2">
+        <f>H28/C28</f>
+        <v>3.2007733412099566</v>
+      </c>
+      <c r="J28" s="11">
         <f>C28/SUM(C28,D28)</f>
-        <v>0.625</v>
-      </c>
-      <c r="I28" s="6">
-        <f>H28/C28</f>
-        <v>3.125</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="K28" s="6">
+        <f>J28/C28</f>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="L28" s="6">
+        <f>(C28*G28)/SUM((C28*G28),(D29*G29))</f>
+        <v>0.77939504207414145</v>
+      </c>
+      <c r="M28" s="6">
+        <f>L28/C28</f>
+        <v>3.3886740959745278</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2387,52 +3096,72 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
-    </row>
-    <row r="29" spans="1:35" ht="15.75">
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+    </row>
+    <row r="29" spans="1:39" ht="15.75">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D29" s="6">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2">
-        <f>(D29*$G$3)/SUM((D29*$G$3),(C29*$G$2))</f>
-        <v>0.51655629139072856</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/D29</f>
-        <v>4.3046357615894051</v>
-      </c>
-      <c r="H29" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H29" s="2">
+        <f>(D29*$F$3)/SUM((D29*$F$3),(C29*$F$2))</f>
+        <v>0.26382213152170991</v>
+      </c>
+      <c r="I29" s="2">
+        <f>H29/D29</f>
+        <v>5.2764426304341976</v>
+      </c>
+      <c r="J29" s="11">
         <f>D29/SUM(C29,D29)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I29" s="6">
-        <f>H29/D29</f>
-        <v>3.125</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="K29" s="6">
+        <f>J29/D29</f>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="L29" s="6">
+        <f>(D29*G29)/SUM((C28*G28),(D29*G29))</f>
+        <v>0.22060495792585855</v>
+      </c>
+      <c r="M29" s="6">
+        <f>L29/D29</f>
+        <v>4.4120991585171705</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -2450,52 +3179,72 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-    </row>
-    <row r="30" spans="1:35" ht="15.75">
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+    </row>
+    <row r="30" spans="1:39" ht="15.75">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="D30" s="6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2">
-        <f>(C30*$G$2)/SUM((C30*$G$2),($G$3*D30))</f>
-        <v>0.72091026191498497</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/C30</f>
-        <v>3.1343924431086303</v>
-      </c>
-      <c r="H30" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H30" s="2">
+        <f>(C30*$F$2)/SUM((C30*$F$2),($F$3*D30))</f>
+        <v>0.75205047318611984</v>
+      </c>
+      <c r="I30" s="2">
+        <f>H30/C30</f>
+        <v>3.7602523659305991</v>
+      </c>
+      <c r="J30" s="11">
         <f>C30/SUM(C30,D30)</f>
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="I30" s="6">
-        <f>H30/C30</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K30" s="6">
+        <f>J30/C30</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="L30" s="6">
+        <f>(C30*G30)/SUM((C30*G30),(D31*G31))</f>
+        <v>0.79339723109691151</v>
+      </c>
+      <c r="M30" s="6">
+        <f>L30/C30</f>
+        <v>3.9669861554845576</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -2513,52 +3262,72 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-    </row>
-    <row r="31" spans="1:35" ht="15.75">
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+    </row>
+    <row r="31" spans="1:39" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="D31" s="6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2">
-        <f>(D31*$G$3)/SUM((D31*$G$3),(C31*$G$2))</f>
-        <v>0.27908973808501503</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/D31</f>
-        <v>5.5817947617003005</v>
-      </c>
-      <c r="H31" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H31" s="2">
+        <f>(D31*$F$3)/SUM((D31*$F$3),(C31*$F$2))</f>
+        <v>0.24794952681388011</v>
+      </c>
+      <c r="I31" s="2">
+        <f>H31/D31</f>
+        <v>6.1987381703470028</v>
+      </c>
+      <c r="J31" s="11">
         <f>D31/SUM(C31,D31)</f>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="I31" s="6">
-        <f>H31/D31</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K31" s="6">
+        <f>J31/D31</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="L31" s="6">
+        <f>(D31*G31)/SUM((C30*G30),(D31*G31))</f>
+        <v>0.2066027689030884</v>
+      </c>
+      <c r="M31" s="6">
+        <f>L31/D31</f>
+        <v>5.1650692225772099</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -2576,52 +3345,72 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
-    </row>
-    <row r="32" spans="1:35" ht="15.75">
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+    </row>
+    <row r="32" spans="1:39" ht="15.75">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C32" s="6">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D32" s="6">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f>(C32*$G$2)/SUM((C32*$G$2),($G$3*D32))</f>
-        <v>0.73737373737373746</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2">
-        <f>F32/C32</f>
-        <v>3.6868686868686873</v>
-      </c>
-      <c r="H32" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H32" s="2">
+        <f>(C32*$F$2)/SUM((C32*$F$2),($F$3*D32))</f>
+        <v>0.43665785366164439</v>
+      </c>
+      <c r="I32" s="2">
+        <f>H32/C32</f>
+        <v>1.8985124072245407</v>
+      </c>
+      <c r="J32" s="11">
         <f>C32/SUM(C32,D32)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="I32" s="6">
-        <f>H32/C32</f>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+        <v>0.5609756097560975</v>
+      </c>
+      <c r="K32" s="6">
+        <f>J32/C32</f>
+        <v>2.4390243902439019</v>
+      </c>
+      <c r="L32" s="6">
+        <f>(C32*G32)/SUM((C32*G32),(D33*G33))</f>
+        <v>0.49530278942043648</v>
+      </c>
+      <c r="M32" s="6">
+        <f>L32/C32</f>
+        <v>2.1534903887845065</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -2639,52 +3428,72 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-    </row>
-    <row r="33" spans="1:35" ht="15.75">
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+    </row>
+    <row r="33" spans="1:39" ht="15.75">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D33" s="6">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F33" s="2">
-        <f>(D33*$G$3)/SUM((D33*$G$3),(C33*$G$2))</f>
-        <v>0.26262626262626265</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/D33</f>
-        <v>6.5656565656565657</v>
-      </c>
-      <c r="H33" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H33" s="2">
+        <f>(D33*$F$3)/SUM((D33*$F$3),(C33*$F$2))</f>
+        <v>0.56334214633835566</v>
+      </c>
+      <c r="I33" s="2">
+        <f>H33/D33</f>
+        <v>3.1296785907686426</v>
+      </c>
+      <c r="J33" s="11">
         <f>D33/SUM(C33,D33)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I33" s="6">
-        <f>H33/D33</f>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+        <v>0.43902439024390238</v>
+      </c>
+      <c r="K33" s="6">
+        <f>J33/D33</f>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="L33" s="6">
+        <f>(D33*G33)/SUM((C32*G32),(D33*G33))</f>
+        <v>0.50469721057956352</v>
+      </c>
+      <c r="M33" s="6">
+        <f>L33/D33</f>
+        <v>2.8038733921086862</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -2702,52 +3511,73 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-    </row>
-    <row r="34" spans="1:35" ht="15.75">
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C34" s="6">
         <v>0.23</v>
       </c>
       <c r="D34" s="6">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f>(C34*$G$2)/SUM((C34*$G$2),($G$3*D34))</f>
-        <v>0.41776561333665096</v>
+        <f>AVERAGE(F2,F4,F10,F12,F14,F16,F20,F22,F24,F26,F28,F30,F32)</f>
+        <v>19.110769230769229</v>
       </c>
       <c r="G34" s="2">
-        <f>F34/C34</f>
-        <v>1.8163722318984823</v>
-      </c>
-      <c r="H34" s="11">
+        <v>1490</v>
+      </c>
+      <c r="H34" s="2">
+        <f>(C34*$F$2)/SUM((C34*$F$2),($F$3*D34))</f>
+        <v>0.73617786847829003</v>
+      </c>
+      <c r="I34" s="2">
+        <f>H34/C34</f>
+        <v>3.2007733412099566</v>
+      </c>
+      <c r="J34" s="11">
         <f>C34/SUM(C34,D34)</f>
-        <v>0.5609756097560975</v>
-      </c>
-      <c r="I34" s="6">
-        <f>H34/C34</f>
-        <v>2.4390243902439019</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="K34" s="6">
+        <f>J34/C34</f>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="L34" s="6">
+        <f>(C34*G34)/SUM((C34*G34),(D35*G35))</f>
+        <v>0.77939504207414145</v>
+      </c>
+      <c r="M34" s="6">
+        <f>L34/C34</f>
+        <v>3.3886740959745278</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -2765,599 +3595,693 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-    </row>
-    <row r="35" spans="1:35" ht="15.75">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>15</v>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F35" s="2">
-        <f>(D35*$G$3)/SUM((D35*$G$3),(C35*$G$2))</f>
-        <v>0.58223438666334915</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G35" s="2">
-        <f>F35/D35</f>
-        <v>3.2346354814630511</v>
-      </c>
-      <c r="H35" s="11">
+        <v>1940</v>
+      </c>
+      <c r="H35" s="2">
+        <f>(D35*$F$3)/SUM((D35*$F$3),(C35*$F$2))</f>
+        <v>0.2681129758493655</v>
+      </c>
+      <c r="I35" s="2">
+        <f>H35/D35</f>
+        <v>5.3622595169873097</v>
+      </c>
+      <c r="J35" s="11">
         <f>D35/SUM(C35,D35)</f>
-        <v>0.43902439024390238</v>
-      </c>
-      <c r="I35" s="6">
-        <f>H35/D35</f>
-        <v>2.4390243902439024</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2">
-        <f>(C36*$G$2)/SUM((C36*$G$2),($G$3*D36))</f>
-        <v>0.72091026191498497</v>
-      </c>
-      <c r="G36" s="2">
-        <f>F36/C36</f>
-        <v>3.1343924431086303</v>
-      </c>
-      <c r="H36" s="11">
-        <f>C36/SUM(C36,D36)</f>
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="I36" s="6">
-        <f>H36/C36</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2">
-        <f>(D37*$G$3)/SUM((D37*$G$3),(C37*$G$2))</f>
-        <v>0.28353326063249729</v>
-      </c>
-      <c r="G37" s="2">
-        <f>F37/D37</f>
-        <v>5.6706652126499453</v>
-      </c>
-      <c r="H37" s="11">
-        <f>D37/SUM(C37,D37)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="I37" s="6">
-        <f>H37/D37</f>
+      <c r="K35" s="6">
+        <f>J35/D35</f>
         <v>3.6363636363636362</v>
       </c>
-      <c r="J37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="4"/>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="B40" s="7"/>
-      <c r="D40"/>
-      <c r="G40" s="7"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="L35" s="6">
+        <f>(D35*G35)/SUM((C34*G34),(D35*G35))</f>
+        <v>0.22060495792585855</v>
+      </c>
+      <c r="M35" s="6">
+        <f>L35/D35</f>
+        <v>4.4120991585171705</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="4"/>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="B38" s="7"/>
+      <c r="D38"/>
+      <c r="I38" s="7"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="11"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="11"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="2"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="11"/>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="11"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:39">
       <c r="A42" s="2"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="11"/>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="11"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="2"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="11"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="11"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:39">
       <c r="A44" s="2"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="11"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="11"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:39">
       <c r="A45" s="2"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="11"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:35">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="11"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="2"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="11"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="11"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="2"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="11"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="11"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:39">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="11"/>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="11"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="11"/>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="11"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="11"/>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="11"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="11"/>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="11"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="11"/>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="11"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="11"/>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="11"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="11"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="11"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="11"/>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="11"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="11"/>
-      <c r="I56"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="11"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="11"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="11"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="11"/>
-      <c r="I58"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="11"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="11"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="11"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="11"/>
-      <c r="I60"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="11"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="11"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="11"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="11"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="11"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="11"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="11"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="11"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="11"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="11"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="11"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="11"/>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="11"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="11"/>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="11"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="11"/>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="11"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="11"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="11"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="11"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="11"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="11"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="2"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="11"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="3"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="11"/>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="2"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="11"/>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="3"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="11"/>
-      <c r="I74"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="11"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{DE8D319A-FEB8-4E0E-8C13-7D8BF8821D19}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{1F746441-FDB7-4973-A8A4-D99997D18795}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{DCFA68E7-56B4-4950-8AEE-70D7E69AD26D}"/>
+    <hyperlink ref="Q6" r:id="rId4" xr:uid="{FF6B686E-6863-4D6E-B18D-358DAD1CE69D}"/>
+    <hyperlink ref="Q8" r:id="rId5" xr:uid="{2CC8EE66-BD3B-479D-A3D0-61788E5A4422}"/>
+    <hyperlink ref="Q10" r:id="rId6" xr:uid="{13FE50CD-DB40-461D-837F-A6BD0ED0AB4E}"/>
+    <hyperlink ref="Q12" r:id="rId7" xr:uid="{316AB504-E87C-40B8-91FE-8A2AB8AFCED4}"/>
+    <hyperlink ref="Q14" r:id="rId8" xr:uid="{A14A0809-DB7B-4BB0-86BA-9308BBF62044}"/>
+    <hyperlink ref="Q16" r:id="rId9" xr:uid="{0A31A7D4-F141-4F41-9224-08F2060F8CA4}"/>
+    <hyperlink ref="Q18" r:id="rId10" xr:uid="{1083E7C7-FC68-4F55-A676-B76E740AE12A}"/>
+    <hyperlink ref="Q20" r:id="rId11" xr:uid="{9C88380D-2344-46AA-AF44-17B78A48CF45}"/>
+    <hyperlink ref="Q22" r:id="rId12" xr:uid="{7CA0C88C-672A-49CC-A208-BA259003509F}"/>
+    <hyperlink ref="Q24" r:id="rId13" xr:uid="{290F41AA-1532-4547-8F82-431EF23CCC54}"/>
+    <hyperlink ref="Q26" r:id="rId14" xr:uid="{08460BB3-7282-4E63-A91A-AE8905CC64B7}"/>
+    <hyperlink ref="Q28" r:id="rId15" xr:uid="{69F06FD3-9D35-4C19-AAA4-2C8A9891C70C}"/>
+    <hyperlink ref="Q30" r:id="rId16" xr:uid="{6D8D59D9-5F00-4135-A92D-FD0157BA2E96}"/>
+    <hyperlink ref="Q32" r:id="rId17" xr:uid="{864DCC0A-16C1-49DA-B89A-E223DA80E394}"/>
+    <hyperlink ref="Q34" r:id="rId18" xr:uid="{21698BE5-29D5-4489-863A-ACAF2B40811C}"/>
+    <hyperlink ref="Q5" r:id="rId19" xr:uid="{004137F8-C630-4BC7-953E-D7E20B198C4A}"/>
+    <hyperlink ref="Q7" r:id="rId20" xr:uid="{57DE23EB-680E-48D7-8A32-CD42AF58BBFB}"/>
+    <hyperlink ref="Q9" r:id="rId21" xr:uid="{45B3276F-28BA-4394-BDFC-45AEA2374166}"/>
+    <hyperlink ref="Q11" r:id="rId22" xr:uid="{8879323B-3AEE-4BA1-B15F-BEB355209BAB}"/>
+    <hyperlink ref="Q13" r:id="rId23" xr:uid="{6F24ABFA-4FAB-4508-858F-1F6532727D0C}"/>
+    <hyperlink ref="Q15" r:id="rId24" xr:uid="{492D99C1-FB36-4DD0-AC89-D593814C4B4F}"/>
+    <hyperlink ref="Q17" r:id="rId25" xr:uid="{9E9AC137-4964-43AB-ACB8-68178FA5236B}"/>
+    <hyperlink ref="Q19" r:id="rId26" xr:uid="{C17ADB3F-B090-4274-A629-AC7DB01588C1}"/>
+    <hyperlink ref="Q21" r:id="rId27" xr:uid="{DAD27926-EEBB-4A5F-9A23-BA7340266EF0}"/>
+    <hyperlink ref="Q23" r:id="rId28" xr:uid="{536E29F1-A77D-44D8-BB1A-F16A5C822065}"/>
+    <hyperlink ref="Q25" r:id="rId29" xr:uid="{9536A614-7848-4BEC-B14A-21CEFB733954}"/>
+    <hyperlink ref="Q27" r:id="rId30" xr:uid="{9D90BE0F-07D1-4367-9A50-7E51BB8E8ED9}"/>
+    <hyperlink ref="Q29" r:id="rId31" xr:uid="{2DC0A37A-1B27-437C-9239-F87DE573EB45}"/>
+    <hyperlink ref="Q31" r:id="rId32" xr:uid="{177EAA78-CCDF-4245-B81F-8E54FEA22424}"/>
+    <hyperlink ref="Q33" r:id="rId33" xr:uid="{8A1FC369-5428-45E9-8EC4-BE12DB0CA5C4}"/>
+    <hyperlink ref="Q35" r:id="rId34" xr:uid="{1CBEB7FD-F7FE-47E1-9005-B40140E35591}"/>
+    <hyperlink ref="P2" r:id="rId35" xr:uid="{44F2D43E-BCA3-4784-B0FE-B5301F14BC12}"/>
+    <hyperlink ref="P3" r:id="rId36" xr:uid="{46808888-596D-471E-BABD-9EA2679F12ED}"/>
+    <hyperlink ref="P4" r:id="rId37" xr:uid="{96781483-9D23-4B1C-B3CF-86AC6D24930A}"/>
+    <hyperlink ref="P6" r:id="rId38" xr:uid="{DBBFD7E1-E698-4BC9-BA45-518EC1FFC904}"/>
+    <hyperlink ref="P8" r:id="rId39" xr:uid="{9FD0CBCA-368F-43B5-ACFC-50AA1B6134C4}"/>
+    <hyperlink ref="P10" r:id="rId40" xr:uid="{FAAF865E-1A55-455A-BA3B-2573E19DECE2}"/>
+    <hyperlink ref="P12" r:id="rId41" xr:uid="{5743CAFB-E02C-47EA-8CBD-B83FB7C44B84}"/>
+    <hyperlink ref="P14" r:id="rId42" xr:uid="{F00B1F43-5E04-4E79-887D-EE388D7DABCF}"/>
+    <hyperlink ref="P16" r:id="rId43" xr:uid="{344C78BA-9F21-4740-8604-FA7FC3C1266A}"/>
+    <hyperlink ref="P18" r:id="rId44" xr:uid="{915DA3E8-4DCD-49C4-8291-B9B86D8EAC85}"/>
+    <hyperlink ref="P20" r:id="rId45" xr:uid="{926335E6-AAF4-4E7D-A2C5-8ABC3654AE02}"/>
+    <hyperlink ref="P22" r:id="rId46" xr:uid="{8C6E75A2-3FF5-49FD-8328-84268D5F53D8}"/>
+    <hyperlink ref="P24" r:id="rId47" xr:uid="{932B4EF2-9A76-49F5-AAF2-57C4C418E15A}"/>
+    <hyperlink ref="P26" r:id="rId48" xr:uid="{21438B63-1933-41AA-BC40-D555D4CD2B35}"/>
+    <hyperlink ref="P28" r:id="rId49" xr:uid="{98083054-04E9-4AF6-8B81-47393BED0062}"/>
+    <hyperlink ref="P30" r:id="rId50" xr:uid="{147F3C83-10A3-4D6E-8668-A9D28CB45BD7}"/>
+    <hyperlink ref="P32" r:id="rId51" xr:uid="{09019352-45B1-4573-822B-1CF9041C9B2C}"/>
+    <hyperlink ref="P34" r:id="rId52" xr:uid="{BF184C99-8987-405B-B5B9-0DFF636D8326}"/>
+    <hyperlink ref="P5" r:id="rId53" xr:uid="{A8D1F222-FCEE-4709-B464-E302BCDDDBD3}"/>
+    <hyperlink ref="P7" r:id="rId54" xr:uid="{05849A90-2E66-48DA-8E7E-C8D5711EC87B}"/>
+    <hyperlink ref="P9" r:id="rId55" xr:uid="{616209EB-6A79-4DE0-A7FE-9BEDC98FD0B0}"/>
+    <hyperlink ref="P11" r:id="rId56" xr:uid="{C409529B-E6AC-4291-924B-6DD4071E9B0F}"/>
+    <hyperlink ref="P13" r:id="rId57" xr:uid="{EDB4550E-6F9D-4858-B3F1-9D269DFD30EB}"/>
+    <hyperlink ref="P15" r:id="rId58" xr:uid="{BDC9DC02-764C-48C1-8B51-6040391AA356}"/>
+    <hyperlink ref="P17" r:id="rId59" xr:uid="{0E44DE80-4386-475C-97FD-161AB2BCFA1E}"/>
+    <hyperlink ref="P19" r:id="rId60" xr:uid="{E96EB21A-B532-4D55-9762-43C0CB4D6B85}"/>
+    <hyperlink ref="P21" r:id="rId61" xr:uid="{42FA947D-B0C4-463D-A65F-D8E1FB4BEF40}"/>
+    <hyperlink ref="P23" r:id="rId62" xr:uid="{AE9F8F29-0B2B-469F-8692-EDBAF0D2EE80}"/>
+    <hyperlink ref="P25" r:id="rId63" xr:uid="{194446CF-FEAD-4753-8B71-E28BE9B1C1A7}"/>
+    <hyperlink ref="P27" r:id="rId64" xr:uid="{923D6E7A-1A1F-4F97-B5BF-7C40E8C6E6DA}"/>
+    <hyperlink ref="P29" r:id="rId65" xr:uid="{9C38A72C-85CC-4E97-9882-DA0FBFBD4BB2}"/>
+    <hyperlink ref="P31" r:id="rId66" xr:uid="{34024DDC-2436-4097-A0AF-44C4A85924E1}"/>
+    <hyperlink ref="P33" r:id="rId67" xr:uid="{501A108C-9C14-4681-A4FC-CE5D1A6C2CD6}"/>
+    <hyperlink ref="P35" r:id="rId68" xr:uid="{8ACAC676-A9C2-4878-AD78-FA6409258716}"/>
+    <hyperlink ref="R2" r:id="rId69" location="section-d1e21762" xr:uid="{511E07DC-0485-490B-AD8B-A856ACF4D2E7}"/>
+    <hyperlink ref="R3" r:id="rId70" location="section-d1e21762" xr:uid="{7A6052D7-153A-4742-AF7E-3751A6E27025}"/>
+    <hyperlink ref="R4:R35" r:id="rId71" location="section-d1e21762" xr:uid="{A5F19D59-5C0B-45B2-B55D-FDF841ABCF13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D64726C69A66EA4099E389C94D12C179" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ad97274cbe9e562ff496b594102c4a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dae89b64-c529-494f-868e-ad5d2094d0fa" xmlns:ns3="ed16b9de-937e-42cc-89df-e5a7efc4dd3c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="882a53b903b75572d08ede252261cdd6" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D64726C69A66EA4099E389C94D12C179" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="834a38daea209eaabe24a85a87033b17">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dae89b64-c529-494f-868e-ad5d2094d0fa" xmlns:ns3="ed16b9de-937e-42cc-89df-e5a7efc4dd3c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e5c650b0d1b5eeeda759ea907723fd" ns2:_="" ns3:_="">
     <xsd:import namespace="dae89b64-c529-494f-868e-ad5d2094d0fa"/>
     <xsd:import namespace="ed16b9de-937e-42cc-89df-e5a7efc4dd3c"/>
     <xsd:element name="properties">
@@ -3370,6 +4294,7 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3388,6 +4313,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3520,8 +4450,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EE6CB6-2C00-4A2E-B24B-E862454D1C75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E114AB95-C8A5-4811-8AEA-D2C6950841BC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3529,5 +4474,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A168EB7-056C-45D6-8681-2B21F655F8D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EE6CB6-2C00-4A2E-B24B-E862454D1C75}"/>
 </file>